--- a/mip_pivot_table.xlsx
+++ b/mip_pivot_table.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
-    <t>player_x</t>
+    <t>player</t>
   </si>
   <si>
     <t>award</t>

--- a/mip_pivot_table.xlsx
+++ b/mip_pivot_table.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>player</t>
   </si>
@@ -37,9 +37,6 @@
     <t>Boris Diaw</t>
   </si>
   <si>
-    <t>Brandon Ingram</t>
-  </si>
-  <si>
     <t>CJ McCollum</t>
   </si>
   <si>
@@ -109,9 +106,6 @@
     <t>Monta Ellis</t>
   </si>
   <si>
-    <t>Pascal Siakam</t>
-  </si>
-  <si>
     <t>Paul George</t>
   </si>
   <si>
@@ -134,9 +128,6 @@
   </si>
   <si>
     <t>Victor Oladipo</t>
-  </si>
-  <si>
-    <t>Zach Randolph</t>
   </si>
 </sst>
 </file>
@@ -494,7 +485,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -796,30 +787,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mip_pivot_table.xlsx
+++ b/mip_pivot_table.xlsx
@@ -37,9 +37,6 @@
     <t>Boris Diaw</t>
   </si>
   <si>
-    <t>CJ McCollum</t>
-  </si>
-  <si>
     <t>Dale Ellis</t>
   </si>
   <si>
@@ -128,6 +125,9 @@
   </si>
   <si>
     <t>Victor Oladipo</t>
+  </si>
+  <si>
+    <t>Zach Randolph</t>
   </si>
 </sst>
 </file>

--- a/mip_pivot_table.xlsx
+++ b/mip_pivot_table.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>player</t>
   </si>
@@ -37,6 +37,12 @@
     <t>Boris Diaw</t>
   </si>
   <si>
+    <t>Brandon Ingram</t>
+  </si>
+  <si>
+    <t>CJ McCollum</t>
+  </si>
+  <si>
     <t>Dale Ellis</t>
   </si>
   <si>
@@ -101,6 +107,9 @@
   </si>
   <si>
     <t>Monta Ellis</t>
+  </si>
+  <si>
+    <t>Pascal Siakam</t>
   </si>
   <si>
     <t>Paul George</t>
@@ -485,7 +494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -787,6 +796,30 @@
         <v>1</v>
       </c>
     </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
